--- a/CSC3510 S2021/Lectures/NodeJSExpressANDreadingFromAjax.xlsx
+++ b/CSC3510 S2021/Lectures/NodeJSExpressANDreadingFromAjax.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="3" r:id="rId1"/>
     <sheet name="MainPAge" sheetId="2" r:id="rId2"/>
     <sheet name="homePage2.html call get" sheetId="1" r:id="rId3"/>
-    <sheet name="INSERT NEW POST" sheetId="4" r:id="rId4"/>
+    <sheet name="DELETE Post" sheetId="5" r:id="rId4"/>
+    <sheet name="INSERT NEW POST" sheetId="4" r:id="rId5"/>
+    <sheet name="Update" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2064,15 +2066,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>36952</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>27881</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113227</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>84699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2089,8 +2091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9180952" cy="5552381"/>
+          <a:off x="66675" y="66675"/>
+          <a:ext cx="8580952" cy="8209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2102,15 +2104,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>132133</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>56539</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198562</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>142014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2127,6 +2129,87 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="76200" y="8115300"/>
+          <a:ext cx="11704762" cy="6885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>36952</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9180952" cy="5552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>132133</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="152400" y="5267325"/>
           <a:ext cx="9733333" cy="4885714"/>
         </a:xfrm>
@@ -2991,6 +3074,1322 @@
             <a:t> /homePage2.html</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>531474</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>151249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="20469225"/>
+          <a:ext cx="15409524" cy="9209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1105239" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="19954875"/>
+          <a:ext cx="1105239" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>LEFT OFF!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>559217</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>189682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419101" y="19050"/>
+          <a:ext cx="6845716" cy="5314132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94128</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>18408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="5362575"/>
+          <a:ext cx="8971428" cy="5133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8345</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>46982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="10525125"/>
+          <a:ext cx="9438095" cy="5142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>465559</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="15344775"/>
+          <a:ext cx="9323809" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2411238" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448174" y="17678400"/>
+          <a:ext cx="2411238" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>src=js/mainPage2UpdateScreenPage.js</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3543300" y="17640300"/>
+          <a:ext cx="876300" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132419</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>123175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18926175"/>
+          <a:ext cx="7447619" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>46718</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>37477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="24012525"/>
+          <a:ext cx="7257143" cy="4980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>580193</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>104137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="28908375"/>
+          <a:ext cx="6657143" cy="5104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>37028</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>75586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33642300"/>
+          <a:ext cx="8571428" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>379809</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>190111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38414325"/>
+          <a:ext cx="9523809" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1562101" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838573" y="31718250"/>
+          <a:ext cx="1562101" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>document.ready()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2695575" y="31746825"/>
+          <a:ext cx="1114425" cy="95251"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304798</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1562101" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791198" y="36947475"/>
+          <a:ext cx="1562101" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Available Tasks ... add updateIt button</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4648200" y="36976050"/>
+          <a:ext cx="1114425" cy="95251"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134101" y="37395152"/>
+          <a:ext cx="981074" cy="1533523"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1622495" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="19716750"/>
+          <a:ext cx="1622495" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>UpdateIt() ... create form</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  sendTheUpdate( ID )</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4743450" y="19935143"/>
+          <a:ext cx="1485900" cy="682"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>161243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5162550" y="20163743"/>
+          <a:ext cx="1885950" cy="438832"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3267075" y="21174075"/>
+          <a:ext cx="2143126" cy="247652"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1714828" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="21307425"/>
+          <a:ext cx="1714828" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>UpdateIt() ... create form</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  sendTheUpdate( ID )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Set up the URL for the PUT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4448175" y="21974177"/>
+          <a:ext cx="1066801" cy="314323"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2790825" y="22126577"/>
+          <a:ext cx="2876551" cy="933448"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2476500" y="22050377"/>
+          <a:ext cx="4391027" cy="2066923"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3067050" y="24241125"/>
+          <a:ext cx="2876551" cy="933448"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="579967" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="24183975"/>
+          <a:ext cx="579967" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Reload</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3264,8 +4663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3280,7 +4679,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,8 +4693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,8 +4708,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="N153" sqref="N153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
